--- a/biology/Médecine/Édouard_Brissaud/Édouard_Brissaud.xlsx
+++ b/biology/Médecine/Édouard_Brissaud/Édouard_Brissaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Brissaud</t>
+          <t>Édouard_Brissaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard Brissaud, né le 15 avril 1852 à Besançon[1] et mort le 19 décembre 1909 à Paris (6e)[2], est un médecin français, neurologue, anatomo-pathologiste, et historien de la médecine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard Brissaud, né le 15 avril 1852 à Besançon et mort le 19 décembre 1909 à Paris (6e), est un médecin français, neurologue, anatomo-pathologiste, et historien de la médecine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Brissaud</t>
+          <t>Édouard_Brissaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Désiré Brissaud (1822-1889), professeur d'histoire au lycée Charlemagne[3], Édouard fut l'élève des professeurs Charcot, Broca, et Lasègue, puis médecin des hôpitaux et professeur à la Faculté de médecine de Paris. Il a travaillé dans différents domaines : l'anatomie, l'anatomo-pathologie, la neurologie et la psychiatrie. On lui doit notamment la description de la sinistrose en 1908.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Désiré Brissaud (1822-1889), professeur d'histoire au lycée Charlemagne, Édouard fut l'élève des professeurs Charcot, Broca, et Lasègue, puis médecin des hôpitaux et professeur à la Faculté de médecine de Paris. Il a travaillé dans différents domaines : l'anatomie, l'anatomo-pathologie, la neurologie et la psychiatrie. On lui doit notamment la description de la sinistrose en 1908.
 Séjournant régulièrement en Béarn chez son ami Paul Reclus, il est élu conseiller général des Basses-Pyrénées pour le canton de Sauveterre-de-Béarn en février 1902.
 Il épouse en 1879 Hélène Boutet de Monvel, née en 1852, petite-fille du comédien Monvel et descendante par sa mère des ténors d'opéra  Louis et Adolphe Nourrit. Trois fils naissent de leur union : Jacques (1880-1960), artiste peintre, Étienne (1882-1951), médecin, et Pierre (1885-1964), illustrateur de mode et d'ouvrages de littérature.
-Il serait le modèle du docteur du Boulbon[4] dans La Recherche de Marcel Proust.
+Il serait le modèle du docteur du Boulbon dans La Recherche de Marcel Proust.
 Selon Emmanuel Berl qui le connut dans sa jeunesse, sa capacité de diagnostic à distance touchait à la divination. Il témoigne à son sujet : "Il vint un jour déjeuner avec ma mère et moi à Salies-de-Béarn où il nous avait envoyés. Je le revois entrer dans la salle à manger, froncer le sourcil, en regardant, à l'autre bout de la pièce, une table où une dame très élégante souriait en parlant à deux autres dames. Il dit "qu'est ce qu'elle a donc?" Elle avait une fille sourde et muette. Je suis aujourd'hui encore, stupéfait par cette divination" (Emmanuel Berl, A contretemps, Gallimard, Paris, 1969 p. 103)
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard_Brissaud</t>
+          <t>Édouard_Brissaud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1879 : Faits pour servir à l'histoire des dégénérations secondaires dans le pédoncule cérébral, Paris, V.-A. Delahaye, 20 p., monographie imprimée, in-8° (lire en ligne).
 1880 : Recherches anatomo-pathologiques et physiologiques sur la contracture permanente des hémiplégiques, Paris, V.-A. Delahaye et Cie (lire en ligne).
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89douard_Brissaud</t>
+          <t>Édouard_Brissaud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Syndrome de Brissaud, ou syndrome de Meige-Brissaud ;
 Maladie de Brissaud ;
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89douard_Brissaud</t>
+          <t>Édouard_Brissaud</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,9 +657,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (31 décembre 1895[5]).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (31 décembre 1895).</t>
         </is>
       </c>
     </row>
